--- a/medicine/Enfance/Jérôme_Noirez/Jérôme_Noirez.xlsx
+++ b/medicine/Enfance/Jérôme_Noirez/Jérôme_Noirez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Noirez</t>
+          <t>Jérôme_Noirez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jérôme Noirez, né en 1969 à Paris, est un romancier et nouvelliste français de fantasy et de romans pour la jeunesse. Il est également musicologue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Noirez</t>
+          <t>Jérôme_Noirez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né en 1969 à Paris. Il s'intéresse au fantastique depuis sa prime jeunesse, en lit beaucoup adolescent, avant d'être marqué par plusieurs auteurs généralistes ou classés comme tels : Céline, Rabelais, et Witold Gombrowicz avec Cosmos[1]. Outre l'écriture, son autre activité principale est la musique : il joue de la musique médiévale, compose de nombreux morceaux et s'essaie à diverses expériences, dont le "fantasmatographe", étrange croisement entre le cinéma muet et la musique expérimentale[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né en 1969 à Paris. Il s'intéresse au fantastique depuis sa prime jeunesse, en lit beaucoup adolescent, avant d'être marqué par plusieurs auteurs généralistes ou classés comme tels : Céline, Rabelais, et Witold Gombrowicz avec Cosmos. Outre l'écriture, son autre activité principale est la musique : il joue de la musique médiévale, compose de nombreux morceaux et s'essaie à diverses expériences, dont le "fantasmatographe", étrange croisement entre le cinéma muet et la musique expérimentale. 
 Rôliste et coauteur de jeux de rôle, il a participé à Rétrofutur chez Multisim.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Noirez</t>
+          <t>Jérôme_Noirez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Condamnation pour pédopornographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interpellé en 2013, Jérôme Noirez est condamné, le 28 mai 2016, par le tribunal correctionnel d'Agen à 30 mois de prison dont 15 ferme et 10 000 € de dommages et intérêts (avec une mise à l'épreuve pour une durée de 5 ans et l'apparition de ses nom et prénom sur le Fichier judiciaire automatisé des auteurs d'infractions sexuelles ou violentes) pour « détention, captation et diffusion d'images pédopornographiques »[3],[4],[5],[6]. En conséquence, les éditions Gulf Stream, éditeurs de quatre de ses romans pour la jeunesse, décident de suspendre la commercialisation de ses livres[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interpellé en 2013, Jérôme Noirez est condamné, le 28 mai 2016, par le tribunal correctionnel d'Agen à 30 mois de prison dont 15 ferme et 10 000 € de dommages et intérêts (avec une mise à l'épreuve pour une durée de 5 ans et l'apparition de ses nom et prénom sur le Fichier judiciaire automatisé des auteurs d'infractions sexuelles ou violentes) pour « détention, captation et diffusion d'images pédopornographiques ». En conséquence, les éditions Gulf Stream, éditeurs de quatre de ses romans pour la jeunesse, décident de suspendre la commercialisation de ses livres.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Noirez</t>
+          <t>Jérôme_Noirez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,16 +592,90 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Féerie pour les ténèbres
-Féerie pour les ténèbres, 2004, Nestiveqnen, roman
+          <t>Féerie pour les ténèbres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Féerie pour les ténèbres, 2004, Nestiveqnen, roman
 Les Nuits vénéneuses, 2005, Nestiveqnen, roman
 Le Carnaval des abîmes, 2006, Nestiveqnen, roman
 Les nouvelles Sous le pont et Le Grand Machouilleur, parues en 2004 dans la revue Faeries (cf. ci-dessous), se déroulent également dans l'univers de Féerie pour les Ténèbres. Elles ont d'ailleurs été publiées un peu avant les romans.
-Zoo cosmique
-Le Dernier des Babarus, 2012, Flammarion, roman jeunesse
-Boule de nuit, 2013, Flammarion, roman jeunesse
-Autres livres
-Encyclopédie des fantômes et des fantasmes, 2005, l'Oxymore, encyclopédie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jérôme_Noirez</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Noirez</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Zoo cosmique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Dernier des Babarus, 2012, Flammarion, roman jeunesse
+Boule de nuit, 2013, Flammarion, roman jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jérôme_Noirez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Noirez</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres livres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Encyclopédie des fantômes et des fantasmes, 2005, l'Oxymore, encyclopédie
 Leçons du monde fluctuant, 2007, Denoël, roman (Prix Bob-Morane 2008)
 Fleurs de dragon, 2008, Gulf Stream, roman jeunesse
 L'Empire invisible, 2008, Gulf Stream, roman jeunesse
@@ -599,9 +689,43 @@
 Desolation Road, 2011, Gulf Stream Editeur, roman jeunesse
 120 journées, 2012, Calmann-Lévy, roman (Prix Masterton 2013)
 Sushi nerveux, 2012, Éditions de l'Archipel, roman jeunesse
-Brainless, 2015, Gulf Stream, roman jeunesse
-Nouvelles
-Cuchulain 500 mg, dans l'anthologie L'Esprit des bardes, Nestiveqnen, 2003.
+Brainless, 2015, Gulf Stream, roman jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jérôme_Noirez</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Noirez</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cuchulain 500 mg, dans l'anthologie L'Esprit des bardes, Nestiveqnen, 2003.
 Notre Patrie se nomme asphalte, dans l'anthologie La Route, L'Oxymore, 2003.
 L'Hydre d'Evelyne, dans l'anthologie Chimères, L'Oxymore, 2003.
 Maison fondée en automne, dans la revue Elegy, décembre 2003.
@@ -616,40 +740,76 @@
 Les Attracteurs puérils, dans la revue Lunatique no 75, 2007.
 Terrible Soleil féroce, dans L'Etrange partition sonore, numéro spécial de la revue JazzoSphère, 2007.
 Terre de fraye, dans l'anthologie Retour sur l'horizon, Denoël (Lunes d'encre), 2009 (Nouveau Grand Prix de la science-fiction française 2009).
-Welcome Home, dans l'anthologie Utopiales 2015, ActuSF, coll. « Les Trois Souhaits », 2015, p. 101-121.
-Autres publications
-Contre-texte et littérature carnavalesque : les sources médiévales d'un merveilleux discordant dans le cycle Féerie pour les ténèbres, dans les Actes du colloque du CRELID : Fantasy : le merveilleux médiéval aujourd'hui, Bragelonne coll. "Essais", 2007.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>J%C3%A9r%C3%B4me_Noirez</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+Welcome Home, dans l'anthologie Utopiales 2015, ActuSF, coll. « Les Trois Souhaits », 2015, p. 101-121.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jérôme_Noirez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Noirez</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Contre-texte et littérature carnavalesque : les sources médiévales d'un merveilleux discordant dans le cycle Féerie pour les ténèbres, dans les Actes du colloque du CRELID : Fantasy : le merveilleux médiéval aujourd'hui, Bragelonne coll. "Essais", 2007.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jérôme_Noirez</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Noirez</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix des Mordus du polar 2009 des bibliothèques de la ville de Paris pour Fleurs de dragon (Gulf stream, coll. Courants noirs, 2008)
-Prix Paille en Queue 2010[8] du Salon du Livre jeunesse de l'océan Indien,  pour Sam</t>
+Prix Paille en Queue 2010 du Salon du Livre jeunesse de l'océan Indien,  pour Sam</t>
         </is>
       </c>
     </row>
